--- a/biology/Botanique/Claytonia/Claytonia.xlsx
+++ b/biology/Botanique/Claytonia/Claytonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claytonia (les Claytonies) est un genre de plantes de la famille des Montiaceae. Il était classé selon la classification de Cronquist dans la famille des Portulacaceae. Claytonia a été nommé en l'honneur de John Clayton, un botaniste américain correspondant de Carl von Linné et de Laurentius Theodorus Gronovius[1]. Plusieurs espèces étaient classées dans le passé dans le genre Montia.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claytonia (les Claytonies) est un genre de plantes de la famille des Montiaceae. Il était classé selon la classification de Cronquist dans la famille des Portulacaceae. Claytonia a été nommé en l'honneur de John Clayton, un botaniste américain correspondant de Carl von Linné et de Laurentius Theodorus Gronovius. Plusieurs espèces étaient classées dans le passé dans le genre Montia.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Claytonia perfoliata ssp. perfoliata var. nubigena (Greene) Poelln.
